--- a/va_facility_data_2025-02-20/Lt. Col. Luke Weathers, Jr. VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lt.%20Col.%20Luke%20Weathers%2C%20Jr.%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lt. Col. Luke Weathers, Jr. VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Lt.%20Col.%20Luke%20Weathers%2C%20Jr.%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rfc56447b4f4b401498e30e73be680db0"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc22731a7480c437098093273a9a5cd14"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R25fd8ae7d7654614af85e3a822b5316c"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R69845a27efde4eca8e15c813ce330149"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R9be6fda1b3904d779dc9f711aa8037db"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R68d302761bd44166b5d6c4236b53c537"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R17c4b0365b9247408e11e213fb71a91e"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rd79bfaad5fae4667acf396c31e81ae08"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R790284c96c2048c4b928bd2ee5dff686"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R8d8284b64d13442da6b2135836ce5b44"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rcaf9c48160b74b68a13619a4b43e7c38"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R0093de3536f04b5e9db68e8796e3d71a"/>
   </x:sheets>
 </x:workbook>
 </file>
